--- a/data/trans_dic/P25_9-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_9-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece mala circulación</t>
+          <t>Población que padece mala circulación (tasa de respuesta: 99,85%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>6,75%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,47%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6,39%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>6,19%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>3,7%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>4,88%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>2,78%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,28%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,61%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>3,64%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>2,91%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,33</t>
+          <t>0,0; 4,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,61</t>
+          <t>0,57; 6,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,05</t>
+          <t>0,0; 3,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>0,0; 4,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,34; 12,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,69; 15,93</t>
+          <t>0,0; 5,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 18,89</t>
+          <t>2,97; 10,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 13,19</t>
+          <t>3,77; 14,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,77</t>
+          <t>1,14; 13,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 9,07</t>
+          <t>3,17; 11,71</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 8,93</t>
+          <t>2,56; 13,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 6,65</t>
+          <t>0,8; 6,96</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,66; 6,07</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 7,92</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 7,46</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 6,73</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 6,44</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 5,05</t>
         </is>
       </c>
     </row>
@@ -796,7 +905,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -811,47 +920,77 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>8,15%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7,91%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11,25%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>7,02%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>5,43%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11,67%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
         <is>
           <t>3,84%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>3,63%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
         <is>
           <t>5,99%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>7,08%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,04</t>
+          <t>0,0; 5,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 10,65</t>
+          <t>0,58; 5,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,28; 15,21</t>
+          <t>1,67; 9,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,13; 11,77</t>
+          <t>0,74; 7,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,09; 11,95</t>
+          <t>6,3; 15,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,66; 11,2</t>
+          <t>5,17; 12,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 8,07</t>
+          <t>4,98; 12,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,79</t>
+          <t>7,2; 16,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,68</t>
+          <t>3,78; 11,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 9,07</t>
+          <t>7,05; 17,35</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>3,38; 8,35</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>2,32; 5,7</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 5,39</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>4,23; 9,66</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>3,76; 9,05</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>4,58; 10,43</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>2,41%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>2,73%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>12,96%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>3,78%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13,1%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>13,43%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>12,89%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>13,09%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>21,43%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>13,57%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>7,8%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>17,02%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>8,03%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>8,44%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>7,33%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>7,41%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>12,18%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
         <is>
           <t>7,85%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>10,06%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 5,4</t>
+          <t>1,13; 5,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 8,05</t>
+          <t>1,03; 9,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,52</t>
+          <t>0,54; 3,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 5,59</t>
+          <t>0,89; 5,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,41; 17,22</t>
+          <t>1,28; 5,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,09; 16,98</t>
+          <t>1,61; 7,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,72; 16,12</t>
+          <t>9,54; 17,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,74; 18,26</t>
+          <t>10,14; 17,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,56</t>
+          <t>9,95; 16,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,42; 11,24</t>
+          <t>17,03; 26,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,67; 9,69</t>
+          <t>9,34; 18,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,77; 10,59</t>
+          <t>12,23; 21,67</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>6,05; 10,66</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>6,46; 11,24</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>5,79; 9,78</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>9,55; 15,1</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>5,78; 10,95</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>7,5; 13,39</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>5,53%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>7,47%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>19,24%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,82%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>21,93%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21,84%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>27,53%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>20,09%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>12,01%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>12,94%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>12,64%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>24,7%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>12,12%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>13,13%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>12,68%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>16,6%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>13,39%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>16,29%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 7,45</t>
+          <t>2,2; 7,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,25</t>
+          <t>2,27; 6,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,02</t>
+          <t>1,72; 5,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 11,84</t>
+          <t>3,33; 9,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,93; 23,61</t>
+          <t>4,1; 12,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,97; 26,28</t>
+          <t>4,78; 12,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,81; 26,06</t>
+          <t>15,43; 24,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,81; 25,5</t>
+          <t>17,81; 26,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,58; 14,98</t>
+          <t>17,59; 26,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,72; 16,01</t>
+          <t>22,54; 32,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,45; 15,16</t>
+          <t>15,08; 25,98</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,46; 16,96</t>
+          <t>19,28; 30,51</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>9,75; 15,16</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>10,83; 15,96</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>10,32; 15,04</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>13,49; 19,88</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>10,59; 16,86</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>13,13; 19,53</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>13,74%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>12,14%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>22,73%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>22,92%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19,29%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>28,73%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>26,75%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>15,18%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>15,25%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>14,72%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>30,33%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>15,69%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>15,45%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>14,95%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>21,4%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>19,8%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>23,84%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,57; 11,46</t>
+          <t>4,75; 12,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,14; 11,54</t>
+          <t>5,22; 12,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,07; 14,66</t>
+          <t>7,18; 14,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,69; 17,72</t>
+          <t>9,48; 18,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,28; 29,3</t>
+          <t>8,08; 17,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,95; 28,15</t>
+          <t>12,3; 23,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,6; 24,5</t>
+          <t>17,89; 30,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>20,92; 32,97</t>
+          <t>18,52; 29,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,98; 18,83</t>
+          <t>14,64; 24,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,51; 18,69</t>
+          <t>22,08; 35,86</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,99; 17,95</t>
+          <t>21,44; 33,84</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,0; 23,79</t>
+          <t>24,23; 36,78</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>12,33; 19,2</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>12,62; 18,91</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>12,39; 18,43</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>17,06; 25,89</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>16,29; 24,01</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>19,75; 28,51</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>34,84%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>33,7%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>35,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>43,17%</t>
+          <t>33,92%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>26,79%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>41,32%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>26,25%</t>
+          <t>43,15%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>40,13%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>27,24%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>26,47%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>27,0%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>31,15%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>31,67%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>32,42%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,06; 25,65</t>
+          <t>11,21; 25,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,14; 25,27</t>
+          <t>11,42; 24,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,23; 25,4</t>
+          <t>10,95; 24,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,33; 23,17</t>
+          <t>12,18; 26,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,75; 41,72</t>
+          <t>10,72; 24,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,54; 39,88</t>
+          <t>15,58; 30,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,98; 40,65</t>
+          <t>28,8; 42,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>33,86; 52,84</t>
+          <t>28,07; 40,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,24; 31,58</t>
+          <t>28,84; 41,87</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>21,91; 31,58</t>
+          <t>33,27; 49,75</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,72; 31,64</t>
+          <t>33,05; 52,72</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>25,89; 37,46</t>
+          <t>32,56; 48,41</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>22,16; 32,03</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>21,99; 31,05</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>22,64; 32,35</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>25,7; 36,87</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>25,16; 38,2</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>26,95; 38,67</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>7,05%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>7,08%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>18,57%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>18,64%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>17,84%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>24,12%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>21,12%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>12,09%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>12,15%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>11,4%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>22,71%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>12,25%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>12,18%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>11,55%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>15,75%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>14,11%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>15,8%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,16; 7,09</t>
+          <t>4,07; 6,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,18; 7,17</t>
+          <t>4,3; 7,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,52</t>
+          <t>3,8; 6,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,63; 8,89</t>
+          <t>5,65; 8,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,44; 21,03</t>
+          <t>5,52; 8,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,67; 20,58</t>
+          <t>7,13; 10,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,71; 19,83</t>
+          <t>16,7; 21,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,56; 24,14</t>
+          <t>16,63; 20,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,77; 13,58</t>
+          <t>15,95; 20,12</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,96; 13,65</t>
+          <t>21,6; 26,54</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,28; 12,79</t>
+          <t>18,87; 24,11</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,47; 15,82</t>
+          <t>20,35; 25,48</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>10,84; 13,63</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>10,93; 13,54</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>10,37; 13,03</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>14,15; 17,35</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>12,5; 15,93</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>14,27; 17,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece mala circulación (tasa de respuesta: 99,85%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4224</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11093</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2997</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4161</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>27666</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>36762</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>22779</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>30257</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2295</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>31890</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>47856</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>25776</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>34418</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2295</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1804</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 22616</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2989; 32694</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17230</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19357</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2459</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13927; 50349</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>19391; 74405</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5830; 70359</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>15039; 55475</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>948; 5035</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>308; 2685</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>16126; 58890</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>26051; 82274</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>9806; 76119</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>17402; 63580</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>972; 5071</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>597; 4172</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>7665</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>13340</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2501</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1370</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>51009</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>41149</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>40948</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>56446</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3312</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5336</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>58674</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>41149</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>40948</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>69786</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>5813</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>6706</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 28786</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3345; 31671</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>835; 4971</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>361; 3532</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>32333; 78209</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>26120; 63237</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>25786; 63978</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>36153; 84124</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1785; 5256</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3224; 7931</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>36739; 90771</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>24876; 60980</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>24369; 59935</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>45512; 103926</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>3650; 8782</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>4343; 9882</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19171</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>21800</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9861</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>16329</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1646</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>92837</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>95975</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>93442</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>153739</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>9334</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>112008</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>117775</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>103303</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>170069</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>8961</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>11634</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7740; 37459</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7003; 64160</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3678; 25789</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6046; 34141</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>770; 3345</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>976; 4658</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>67575; 122492</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>72519; 123203</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>71014; 118546</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>122208; 189952</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5038; 9874</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6706; 11886</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>84428; 148619</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>90127; 156829</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>80656; 136276</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>133311; 210851</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>6593; 12495</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>8675; 15477</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>27454</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>25596</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>20458</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>36144</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4740</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>133206</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>147695</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>143659</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>182114</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>10353</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>13166</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>160660</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>173291</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>164117</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>218258</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>14706</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>17907</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>14152; 45522</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14676; 42103</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>10933; 34871</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>21775; 58819</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2388; 6990</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2706; 7106</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>105113; 164188</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>119957; 180643</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>115719; 171058</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>149085; 215398</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>7773; 13389</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>10277; 16260</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>129223; 200918</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>142942; 210554</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>133557; 194736</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>177419; 261425</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>11629; 18518</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>14440; 21469</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>37535</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>40306</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>51607</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>68018</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5369</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7718</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>118615</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>115318</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>98352</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>148512</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>13047</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>14209</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>156150</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>155625</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>149959</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>216529</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>18417</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>21927</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>23403; 59737</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>26286; 61050</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>35407; 72986</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>46937; 91930</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3574; 7887</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5547; 10802</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>89849; 151470</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>93166; 146507</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>74624; 125637</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>114155; 185351</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>10456; 16504</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>11350; 17229</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>122642; 190989</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>127130; 190469</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>124303; 184915</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>172630; 262045</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>15152; 22329</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>18163; 26219</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>91094</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>88514</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>86346</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>104623</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>7419</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>9952</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>249686</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>234932</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>243409</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>291714</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>27496</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>25552</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>340781</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>323446</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>329756</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>396337</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>34915</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>35503</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>61105; 139162</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>60422; 129030</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>57905; 131808</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>68988; 147519</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4989; 11258</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>7143; 14076</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>203294; 302137</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>194465; 279155</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>199767; 290001</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>234843; 351182</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>21062; 33597</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>20732; 30823</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>277303; 400767</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>268671; 379337</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>276454; 395043</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>327036; 469097</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>27735; 42113</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>29510; 42347</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>375.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>187144</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>187310</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>171269</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>242615</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>21288</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>26673</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>673019</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>671832</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>642589</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>862782</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>63819</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>68807</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>860163</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>859142</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>813858</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1105397</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>85106</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>95481</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>140298; 238638</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>148339; 248468</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>130878; 221985</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>194353; 304236</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>16614; 26809</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>21486; 32952</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>597878; 751755</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>599393; 741620</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>574390; 724480</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>772684; 949610</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>57036; 72873</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>61651; 77187</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>761170; 957656</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>770909; 954791</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>730599; 917653</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>992739; 1217375</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>75368; 96037</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>86233; 105818</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
